--- a/input/samples/sample.xlsx
+++ b/input/samples/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgunadi/tools/ansible/solace_playbook/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgunadi/tools/ansible/solace_playbook/input/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB30F97-62E2-EB4C-A227-0922C541C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49CC649-F0C3-4A4F-90E1-CDDF407EB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{C3A9B8EA-75FF-5248-AB06-BDBFE736BF1A}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{C3A9B8EA-75FF-5248-AB06-BDBFE736BF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="msg-vpn" sheetId="3" r:id="rId1"/>
@@ -28,15 +28,16 @@
   <definedNames>
     <definedName name="acl_profile" localSheetId="1">'acl-profile'!$A$1:$L$3</definedName>
     <definedName name="authorization_group" localSheetId="4">'auth-group'!$A$1:$F$2</definedName>
-    <definedName name="bridge" localSheetId="7">bridge!$A$1:$Q$3</definedName>
+    <definedName name="bridge" localSheetId="7">bridge!$A$1:$O$3</definedName>
     <definedName name="client_profile" localSheetId="2">'client-profile'!$A$1:$K$3</definedName>
     <definedName name="client_username" localSheetId="3">'client-username'!$A$1:$G$3</definedName>
     <definedName name="jndi_cf" localSheetId="8">'jndi-cf'!$A$1:$D$3</definedName>
     <definedName name="jndi_queue" localSheetId="10">'jndi-queue'!$A$1:$D$3</definedName>
     <definedName name="jndi_topic" localSheetId="9">'jndi-topic'!$A$1:$D$3</definedName>
-    <definedName name="msg_vpn" localSheetId="0">'msg-vpn'!$A$1:$O$2</definedName>
-    <definedName name="queue" localSheetId="5">queue!$A$1:$O$4</definedName>
-    <definedName name="queue_range" localSheetId="6">'queue-range'!$A$1:$S$3</definedName>
+    <definedName name="msg_vpn" localSheetId="0">'msg-vpn'!#REF!</definedName>
+    <definedName name="msg_vpn_1" localSheetId="0">'msg-vpn'!$A$1:$O$2</definedName>
+    <definedName name="queue" localSheetId="5">queue!$A$1:$I$4</definedName>
+    <definedName name="queue_range" localSheetId="6">'queue-range'!$A$1:$M$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,7 +61,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{CA000968-8B8F-A743-BBE6-DF45DEF54FF5}" name="acl-profile" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/acl-profile.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/acl-profile.csv" tab="0" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -78,7 +79,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{94EFAE9B-0D30-FD4A-9CD6-62CEE5A651A6}" name="authorization-group" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/authorization-group.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/authorization-group.csv" tab="0" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -90,7 +91,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{0132B651-6FE8-4A41-873F-E044BD26346D}" name="bridge" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/bridge.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/bridge.csv" tab="0" comma="1">
       <textFields count="17">
         <textField/>
         <textField/>
@@ -113,7 +114,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{265BBD5D-14E1-5140-9425-F165E73DEF0B}" name="client-profile" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/client-profile.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/client-profile.csv" tab="0" comma="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -130,7 +131,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{69C6EB61-A6BB-FD41-9F52-DC2CC606A646}" name="client-username" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/client-username.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/client-username.csv" tab="0" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -143,7 +144,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{FBEF5138-1F1B-3D4C-9F87-F089CCA6B78E}" name="jndi-cf" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/jndi-cf.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/jndi-cf.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -153,7 +154,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{D2AADA66-7B92-0847-9C2E-0F31FDA7C143}" name="jndi-queue" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/jndi-queue.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/jndi-queue.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -163,7 +164,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{61952FB9-9043-A44B-B584-ECD72E2576D4}" name="jndi-topic" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/jndi-topic.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/jndi-topic.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -172,9 +173,16 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{010B7686-9286-924B-A568-15A0743A0D05}" name="msg-vpn" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/msg-vpn.csv" tab="0" comma="1">
-      <textFields count="15">
+  <connection id="9" xr16:uid="{DA956E67-294B-AC4A-B241-5ED92E399191}" name="msg-vpn1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/msg-vpn.csv" tab="0" comma="1">
+      <textFields count="22">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -194,7 +202,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{9FB79BBB-5C86-BD49-96FB-2A5153500A65}" name="queue" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/queue.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/queue.csv" tab="0" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -215,7 +223,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{19CBF87A-7D6E-B444-8C36-7BB1C1E12908}" name="queue-range" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/queue-range.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/pgunadi/tools/ansible/solace_playbook/input/csv/queue-range.csv" tab="0" comma="1">
       <textFields count="19">
         <textField/>
         <textField/>
@@ -243,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>msg_vpn</t>
   </si>
@@ -428,24 +436,6 @@
     <t>permission</t>
   </si>
   <si>
-    <t>maxBindCount</t>
-  </si>
-  <si>
-    <t>maxMsgSize</t>
-  </si>
-  <si>
-    <t>maxRedeliveryCount</t>
-  </si>
-  <si>
-    <t>maxTtl</t>
-  </si>
-  <si>
-    <t>respectTtlEnabled</t>
-  </si>
-  <si>
-    <t>deadMsgQueue</t>
-  </si>
-  <si>
     <t>subscription_topics</t>
   </si>
   <si>
@@ -455,9 +445,6 @@
     <t>consume</t>
   </si>
   <si>
-    <t>mydmq</t>
-  </si>
-  <si>
     <t>topicA/&gt;,topicB/sub*/&gt;,topicC/sub*</t>
   </si>
   <si>
@@ -503,12 +490,6 @@
     <t>remoteAuthenticationBasicPassword</t>
   </si>
   <si>
-    <t>remoteAuthenticationClientCertContent</t>
-  </si>
-  <si>
-    <t>remoteAuthenticationClientCertPassword</t>
-  </si>
-  <si>
     <t>remote_msg_vpn_name</t>
   </si>
   <si>
@@ -560,9 +541,6 @@
     <t>local_bridge2</t>
   </si>
   <si>
-    <t>certificate</t>
-  </si>
-  <si>
     <t>transportDirectTransportEnabled</t>
   </si>
   <si>
@@ -585,6 +563,24 @@
   </si>
   <si>
     <t>queue/test/2</t>
+  </si>
+  <si>
+    <t>bridgeuser</t>
+  </si>
+  <si>
+    <t>bridgepassword</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>test1_cp</t>
+  </si>
+  <si>
+    <t>test/queue/3</t>
+  </si>
+  <si>
+    <t>no-access</t>
   </si>
 </sst>
 </file>
@@ -649,7 +645,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="msg-vpn" connectionId="9" xr16:uid="{22440CCA-5AB5-1E42-B87D-977B7FBBFE12}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="msg-vpn_1" connectionId="9" xr16:uid="{0FF31364-A874-E147-8A58-94137299100A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,27 +987,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C16E4A-2948-2C42-8F9B-D762B87B00BD}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1145,13 +1142,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1205,13 +1202,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1238,7 +1235,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1355,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AA984B-9290-804B-BBB8-126104DED9D8}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1456,6 +1453,12 @@
       </c>
       <c r="D3" t="b">
         <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1483,7 +1486,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC61B8D-FDA0-5F41-BE4C-44476FDBBEAB}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1648,17 +1651,11 @@
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,30 +1681,12 @@
         <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1719,42 +1698,24 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>10000</v>
       </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>1000000</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1766,21 +1727,21 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>5000</v>
       </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1791,10 +1752,16 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
       <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1805,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DFE29E-36A7-9244-B4FF-1C2A5724A59D}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,28 +1791,22 @@
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -1869,31 +1830,13 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1907,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1919,40 +1862,22 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K2">
         <v>10000</v>
       </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
-      <c r="M2">
-        <v>1000000</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1966,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1980,7 +1905,7 @@
       <c r="K3">
         <v>10000</v>
       </c>
-      <c r="S3" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1991,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535A1ABE-255A-4E46-B725-79D3ADC60E30}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2005,19 +1930,17 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2028,51 +1951,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2081,39 +1998,45 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
       <c r="O2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2122,34 +2045,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2091,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -2189,7 +2118,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2203,10 +2132,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>

--- a/input/samples/sample.xlsx
+++ b/input/samples/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgunadi/tools/ansible/solace_playbook/input/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49CC649-F0C3-4A4F-90E1-CDDF407EB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02FFA9-6391-494C-98E4-A93590A1E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{C3A9B8EA-75FF-5248-AB06-BDBFE736BF1A}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{C3A9B8EA-75FF-5248-AB06-BDBFE736BF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="msg-vpn" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="jndi_topic" localSheetId="9">'jndi-topic'!$A$1:$D$3</definedName>
     <definedName name="msg_vpn" localSheetId="0">'msg-vpn'!#REF!</definedName>
     <definedName name="msg_vpn_1" localSheetId="0">'msg-vpn'!$A$1:$O$2</definedName>
-    <definedName name="queue" localSheetId="5">queue!$A$1:$I$4</definedName>
+    <definedName name="queue" localSheetId="5">queue!$A$1:$J$4</definedName>
     <definedName name="queue_range" localSheetId="6">'queue-range'!$A$1:$M$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>msg_vpn</t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>no-access</t>
+  </si>
+  <si>
+    <t>accessType</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+  </si>
+  <si>
+    <t>non-exclusive</t>
   </si>
 </sst>
 </file>
@@ -987,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C16E4A-2948-2C42-8F9B-D762B87B00BD}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,26 +1645,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC61B8D-FDA0-5F41-BE4C-44476FDBBEAB}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1663,105 +1673,117 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>111</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>112</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>112</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>109</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1918,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535A1ABE-255A-4E46-B725-79D3ADC60E30}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
